--- a/1лаба/p_value_qual.xlsx
+++ b/1лаба/p_value_qual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Учёба\7 семестр\Анализ нечисловых данных\static-analysis-of-non-numeric-data\1лаба\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A15579-2F0C-45CE-A567-A31E109B875A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E66D88-93D3-4A4D-A483-DAADB849E018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,13 +93,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,7 +443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:L25"/>
     </sheetView>
   </sheetViews>
@@ -489,7 +489,7 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="3"/>
       <c r="C2" s="2">
         <v>0.49533040375023463</v>
       </c>
@@ -528,7 +528,7 @@
       <c r="B3" s="2">
         <v>0.4953304037502258</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="2">
         <v>0.99999335733054973</v>
       </c>
@@ -567,7 +567,7 @@
       <c r="C4" s="2">
         <v>0.99999335733054973</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="2">
         <v>3.5694127797773689E-215</v>
       </c>
@@ -606,7 +606,7 @@
       <c r="D5" s="2">
         <v>3.5694127797773689E-215</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="2">
         <v>3.0163393228088729E-2</v>
       </c>
@@ -645,7 +645,7 @@
       <c r="E6" s="2">
         <v>3.0163393228088819E-2</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="2">
         <v>0.10258761596056699</v>
       </c>
@@ -684,7 +684,7 @@
       <c r="F7" s="2">
         <v>0.1025876159605662</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="2">
         <v>0.1311357676654008</v>
       </c>
@@ -723,7 +723,7 @@
       <c r="G8" s="2">
         <v>0.1311357676654008</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="2">
         <v>0.57668165553175887</v>
       </c>
@@ -762,7 +762,7 @@
       <c r="H9" s="2">
         <v>0.5766816555317591</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="2">
         <v>0.99999999949879326</v>
       </c>
@@ -801,7 +801,7 @@
       <c r="I10" s="2">
         <v>0.99999999949879326</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="3"/>
       <c r="K10" s="2">
         <v>0.99999999999996303</v>
       </c>
@@ -840,7 +840,7 @@
       <c r="J11" s="2">
         <v>0.99999999999996303</v>
       </c>
-      <c r="K11" s="4"/>
+      <c r="K11" s="3"/>
       <c r="L11" s="2">
         <v>3.774455213098416E-3</v>
       </c>
@@ -879,7 +879,7 @@
       <c r="K12" s="2">
         <v>3.7744552130984099E-3</v>
       </c>
-      <c r="L12" s="4"/>
+      <c r="L12" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
@@ -922,43 +922,43 @@
         <v>0</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="2">
+      <c r="C15" s="4">
         <f t="shared" ref="C15:L15" si="0">IF(C2&lt;0.05,1,0)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -967,44 +967,44 @@
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="4">
         <f t="shared" ref="B16:L16" si="1">IF(B3&lt;0.05,1,0)</f>
         <v>0</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="2">
+      <c r="D16" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1013,44 +1013,44 @@
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="4">
         <f t="shared" ref="B17:L17" si="2">IF(B4&lt;0.05,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="2">
+      <c r="E17" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -1059,44 +1059,44 @@
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="4">
         <f t="shared" ref="B18:L18" si="3">IF(B5&lt;0.05,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="2">
+      <c r="F18" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -1105,44 +1105,44 @@
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="4">
         <f t="shared" ref="B19:L19" si="4">IF(B6&lt;0.05,1,0)</f>
         <v>1</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="2">
+      <c r="G19" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -1151,44 +1151,44 @@
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="4">
         <f t="shared" ref="B20:L20" si="5">IF(B7&lt;0.05,1,0)</f>
         <v>1</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="2">
+      <c r="H20" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -1197,44 +1197,44 @@
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="4">
         <f t="shared" ref="B21:L21" si="6">IF(B8&lt;0.05,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H21" s="3"/>
-      <c r="I21" s="2">
+      <c r="I21" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -1243,44 +1243,44 @@
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="4">
         <f t="shared" ref="B22:L22" si="7">IF(B9&lt;0.05,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I22" s="3"/>
-      <c r="J22" s="2">
+      <c r="J22" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -1289,44 +1289,44 @@
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="4">
         <f t="shared" ref="B23:L23" si="8">IF(B10&lt;0.05,1,0)</f>
         <v>1</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J23" s="3"/>
-      <c r="K23" s="2">
+      <c r="K23" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -1335,44 +1335,44 @@
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="4">
         <f t="shared" ref="B24:L24" si="9">IF(B11&lt;0.05,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="4">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="4">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K24" s="3"/>
-      <c r="L24" s="2">
+      <c r="L24" s="4">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -1381,43 +1381,43 @@
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="4">
         <f t="shared" ref="B25:L25" si="10">IF(B12&lt;0.05,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
